--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.062569</v>
+        <v>1.824475333333333</v>
       </c>
       <c r="N2">
-        <v>9.187707</v>
+        <v>5.473426</v>
       </c>
       <c r="O2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="P2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
       <c r="Q2">
-        <v>1.189505883025333</v>
+        <v>0.7086286521004445</v>
       </c>
       <c r="R2">
-        <v>10.705552947228</v>
+        <v>6.377657868904</v>
       </c>
       <c r="S2">
-        <v>0.2460077391286943</v>
+        <v>0.1906606574278047</v>
       </c>
       <c r="T2">
-        <v>0.2690593624267</v>
+        <v>0.2015451970524477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +626,10 @@
         <v>18.441306</v>
       </c>
       <c r="O3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="P3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
       <c r="Q3">
         <v>2.387542612936</v>
@@ -638,10 +638,10 @@
         <v>21.487883516424</v>
       </c>
       <c r="S3">
-        <v>0.4937797859292233</v>
+        <v>0.6423822165107047</v>
       </c>
       <c r="T3">
-        <v>0.5400483531609876</v>
+        <v>0.6790548829333741</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +676,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01759833333333333</v>
+        <v>0.009389666666666666</v>
       </c>
       <c r="N4">
-        <v>0.05279499999999999</v>
+        <v>0.028169</v>
       </c>
       <c r="O4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="P4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
       <c r="Q4">
-        <v>0.006835216131111111</v>
+        <v>0.003646959052888889</v>
       </c>
       <c r="R4">
-        <v>0.06151694518</v>
+        <v>0.032822631476</v>
       </c>
       <c r="S4">
-        <v>0.001413625683459368</v>
+        <v>0.0009812355294625031</v>
       </c>
       <c r="T4">
-        <v>0.001546086421706485</v>
+        <v>0.001037252838673693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.199718499999999</v>
+        <v>1.5503715</v>
       </c>
       <c r="N5">
-        <v>6.399436999999999</v>
+        <v>3.100743</v>
       </c>
       <c r="O5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="P5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
       <c r="Q5">
-        <v>1.242774931691333</v>
+        <v>0.6021663577620001</v>
       </c>
       <c r="R5">
-        <v>7.456649590147999</v>
+        <v>3.612998146572</v>
       </c>
       <c r="S5">
-        <v>0.2570245810080547</v>
+        <v>0.1620163583726162</v>
       </c>
       <c r="T5">
-        <v>0.1874056757697904</v>
+        <v>0.1141770910840848</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -800,34 +800,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.022088</v>
+        <v>0.03788966666666667</v>
       </c>
       <c r="N6">
-        <v>0.066264</v>
+        <v>0.113669</v>
       </c>
       <c r="O6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="P6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
       <c r="Q6">
-        <v>0.008579008650666667</v>
+        <v>0.01471639705288889</v>
       </c>
       <c r="R6">
-        <v>0.07721107785600001</v>
+        <v>0.132447573476</v>
       </c>
       <c r="S6">
-        <v>0.001774268250568265</v>
+        <v>0.003959532159411881</v>
       </c>
       <c r="T6">
-        <v>0.00194052222081558</v>
+        <v>0.004185576091419648</v>
       </c>
     </row>
   </sheetData>
